--- a/biology/Zoologie/Alcelaphus/Alcelaphus.xlsx
+++ b/biology/Zoologie/Alcelaphus/Alcelaphus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alcelaphus est un genre des bovidés qui regroupe des grandes antilopes d'Afrique.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS:
 Alcelaphus buselaphus (Pallas, 1766) - Bubale roux
@@ -552,23 +566,25 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>On distingue désormais[Quand ?] trois espèces du genre Alcelaphus[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On distingue désormais[Quand ?] trois espèces du genre Alcelaphus:
 Alcelaphus buselaphus
-Alcelaphus caama -- Bubale caama[2]
+Alcelaphus caama -- Bubale caama
 Alcelaphus lichtensteinii -- Bubale de Lichtenstein
-Les deux dernières ont été considérées comme sous espèces du bubale roux[3] :
-Alcelaphus buselaphus buselaphus† (sous-espèce éteinte entre 1945 and 1954 en Algérie[4].)
+Les deux dernières ont été considérées comme sous espèces du bubale roux :
+Alcelaphus buselaphus buselaphus† (sous-espèce éteinte entre 1945 and 1954 en Algérie.)
 Alcelaphus buselaphus caama
 Alcelaphus buselaphus cokei -- Bubale de Coke
 Alcelaphus buselaphus jacksoni
 Alcelaphus buselaphus lelwel
 Alcelaphus buselaphus lichtensteinii
-Alcelaphus buselaphus major -- Bubale major[5]
+Alcelaphus buselaphus major -- Bubale major
 Alcelaphus buselaphus neumanni
-Alcelaphus buselaphus swaynei (sous-espèce en danger[6])
-Alcelaphus buselaphus tora (sous-espèce en danger[7])</t>
+Alcelaphus buselaphus swaynei (sous-espèce en danger)
+Alcelaphus buselaphus tora (sous-espèce en danger)</t>
         </is>
       </c>
     </row>
